--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270391.5788625104</v>
+        <v>269795.984455623</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5361938.291797789</v>
+        <v>5361938.291797788</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22043491.84780376</v>
+        <v>22043491.84780375</v>
       </c>
     </row>
     <row r="9">
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="X20" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="Y20" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="T20" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="U20" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,61 +2169,61 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="G21" t="n">
+      <c r="U21" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="H21" t="n">
+      <c r="X21" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="I21" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,52 +2251,52 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>22.45388007933153</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="I22" t="n">
+      <c r="T22" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="J22" t="n">
+      <c r="U22" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>22.45388007933152</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,64 +2324,64 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>43.5849887301065</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="T23" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,73 +2394,73 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>49.4834113647894</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>43.5849887301065</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="U24" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="S24" t="n">
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,49 +2488,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>22.45388007933153</v>
+      </c>
+      <c r="S25" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="H25" t="n">
+      <c r="T25" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="I25" t="n">
+      <c r="U25" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="J25" t="n">
-        <v>22.45388007933152</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,67 +2555,67 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="G26" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="H26" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2728,14 +2728,14 @@
         <v>49.4834113647894</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>22.45388007933153</v>
+      </c>
+      <c r="J28" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>22.45388007933152</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,23 +2792,23 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="D29" t="n">
+      <c r="H29" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="X29" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="C30" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C31" t="n">
         <v>49.4834113647894</v>
@@ -2962,61 +2962,61 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>22.45388007933153</v>
+      </c>
+      <c r="Y31" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>22.45388007933153</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="D32" t="n">
+      <c r="S32" t="n">
         <v>43.5849887301065</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,73 +3105,73 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C33" t="n">
+      <c r="V33" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="W33" t="n">
+        <v>49.4834113647894</v>
+      </c>
+      <c r="X33" t="n">
         <v>43.5849887301065</v>
-      </c>
-      <c r="I33" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22.45388007933152</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>49.4834113647894</v>
+        <v>22.45388007933153</v>
       </c>
       <c r="V34" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="X35" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
+      <c r="Y35" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="S35" t="n">
-        <v>43.5849887301065</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>49.4834113647894</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>22.45388007933152</v>
       </c>
       <c r="G37" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>22.45388007933153</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,67 +3509,67 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>43.5849887301065</v>
       </c>
-      <c r="F38" t="n">
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="G38" t="n">
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>43.5849887301065</v>
+      </c>
+      <c r="V39" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="U39" t="n">
+      <c r="W39" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.45388007933152</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>22.45388007933152</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>43.5849887301065</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>43.5849887301065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,67 +3816,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
         <v>43.5849887301065</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="F42" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>49.4834113647894</v>
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>7.521629433619516</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>49.4834113647894</v>
@@ -3958,10 +3958,10 @@
         <v>49.4834113647894</v>
       </c>
       <c r="W43" t="n">
-        <v>22.45388007933152</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C20" t="n">
         <v>3.958672909183152</v>
@@ -5753,19 +5753,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K20" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L20" t="n">
-        <v>52.94725016032466</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M20" t="n">
-        <v>52.94725016032466</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="N20" t="n">
-        <v>99.95649095687459</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="O20" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P20" t="n">
         <v>197.9336454591576</v>
@@ -5777,22 +5777,22 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S20" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T20" t="n">
-        <v>97.96715785352245</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U20" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="V20" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="W20" t="n">
-        <v>53.94191671200073</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="X20" t="n">
-        <v>53.94191671200073</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="Y20" t="n">
         <v>53.94191671200073</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C21" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D21" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E21" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F21" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G21" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H21" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="I21" t="n">
         <v>3.958672909183152</v>
       </c>
       <c r="J21" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K21" t="n">
-        <v>10.26529322618006</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="L21" t="n">
-        <v>10.26529322618006</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="M21" t="n">
-        <v>10.26529322618006</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="N21" t="n">
-        <v>50.96791370573308</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="O21" t="n">
-        <v>99.95649095687459</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="P21" t="n">
         <v>148.9450682080161</v>
@@ -5859,22 +5859,22 @@
         <v>197.9336454591576</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="U21" t="n">
-        <v>197.9336454591576</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="V21" t="n">
-        <v>197.9336454591576</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W21" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="X21" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y21" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G22" t="n">
-        <v>153.9084043176359</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H22" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="J22" t="n">
         <v>3.958672909183152</v>
@@ -5935,25 +5935,25 @@
         <v>176.5890912664556</v>
       </c>
       <c r="S22" t="n">
-        <v>176.5890912664556</v>
+        <v>126.605847463638</v>
       </c>
       <c r="T22" t="n">
-        <v>176.5890912664556</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="U22" t="n">
-        <v>176.5890912664556</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="V22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="W22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y22" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C23" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D23" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E23" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F23" t="n">
         <v>3.958672909183152</v>
@@ -5990,19 +5990,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K23" t="n">
-        <v>52.94725016032466</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L23" t="n">
         <v>52.94725016032466</v>
       </c>
       <c r="M23" t="n">
-        <v>99.95649095687459</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="N23" t="n">
-        <v>99.95649095687459</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="O23" t="n">
-        <v>148.9450682080161</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="P23" t="n">
         <v>197.9336454591576</v>
@@ -6014,25 +6014,25 @@
         <v>197.9336454591576</v>
       </c>
       <c r="S23" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T23" t="n">
-        <v>97.96715785352245</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U23" t="n">
-        <v>97.96715785352245</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V23" t="n">
-        <v>47.98391405070487</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="W23" t="n">
-        <v>47.98391405070487</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="X23" t="n">
-        <v>47.98391405070487</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.98391405070487</v>
+        <v>103.9251605148183</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C24" t="n">
         <v>3.958672909183152</v>
@@ -6066,52 +6066,52 @@
         <v>3.958672909183152</v>
       </c>
       <c r="J24" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K24" t="n">
-        <v>10.26529322618006</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L24" t="n">
-        <v>59.25387047732157</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M24" t="n">
-        <v>99.95649095687459</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="N24" t="n">
         <v>148.9450682080161</v>
       </c>
       <c r="O24" t="n">
-        <v>197.9336454591576</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="P24" t="n">
-        <v>197.9336454591576</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="Q24" t="n">
         <v>197.9336454591576</v>
       </c>
       <c r="R24" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S24" t="n">
-        <v>97.96715785352245</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T24" t="n">
-        <v>97.96715785352245</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="U24" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="V24" t="n">
-        <v>97.96715785352245</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W24" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="X24" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y24" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G25" t="n">
-        <v>126.605847463638</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H25" t="n">
-        <v>76.62260366082046</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="I25" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="J25" t="n">
         <v>3.958672909183152</v>
@@ -6169,28 +6169,28 @@
         <v>176.5890912664556</v>
       </c>
       <c r="R25" t="n">
-        <v>176.5890912664556</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="S25" t="n">
-        <v>176.5890912664556</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="T25" t="n">
-        <v>176.5890912664556</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="U25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="V25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="W25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.5890912664556</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>147.95040165634</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="C26" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D26" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E26" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F26" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G26" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H26" t="n">
         <v>3.958672909183152</v>
@@ -6227,19 +6227,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K26" t="n">
+        <v>3.958672909183152</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.958672909183152</v>
+      </c>
+      <c r="M26" t="n">
         <v>50.96791370573308</v>
       </c>
-      <c r="L26" t="n">
-        <v>50.96791370573308</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>99.95649095687459</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>148.9450682080161</v>
-      </c>
-      <c r="O26" t="n">
-        <v>197.9336454591576</v>
       </c>
       <c r="P26" t="n">
         <v>197.9336454591576</v>
@@ -6248,28 +6248,28 @@
         <v>197.9336454591576</v>
       </c>
       <c r="R26" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="S26" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="T26" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="U26" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V26" t="n">
-        <v>147.95040165634</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="W26" t="n">
-        <v>147.95040165634</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="X26" t="n">
-        <v>147.95040165634</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="Y26" t="n">
-        <v>147.95040165634</v>
+        <v>103.9251605148183</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>10.26529322618006</v>
       </c>
       <c r="L27" t="n">
+        <v>10.26529322618006</v>
+      </c>
+      <c r="M27" t="n">
         <v>59.25387047732157</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>108.2424477284631</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>157.2310249796046</v>
-      </c>
-      <c r="O27" t="n">
-        <v>197.9336454591576</v>
       </c>
       <c r="P27" t="n">
         <v>197.9336454591576</v>
@@ -6376,10 +6376,10 @@
         <v>76.62260366082046</v>
       </c>
       <c r="H28" t="n">
-        <v>26.63935985800288</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="I28" t="n">
-        <v>26.63935985800288</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="J28" t="n">
         <v>3.958672909183152</v>
@@ -6415,13 +6415,13 @@
         <v>176.5890912664556</v>
       </c>
       <c r="U28" t="n">
-        <v>126.605847463638</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="V28" t="n">
-        <v>126.605847463638</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="W28" t="n">
-        <v>126.605847463638</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="X28" t="n">
         <v>126.605847463638</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>147.95040165634</v>
+      </c>
+      <c r="C29" t="n">
+        <v>147.95040165634</v>
+      </c>
+      <c r="D29" t="n">
+        <v>147.95040165634</v>
+      </c>
+      <c r="E29" t="n">
         <v>103.9251605148183</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
+        <v>103.9251605148183</v>
+      </c>
+      <c r="G29" t="n">
         <v>53.94191671200073</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.958672909183152</v>
       </c>
       <c r="H29" t="n">
         <v>3.958672909183152</v>
@@ -6464,22 +6464,22 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K29" t="n">
-        <v>52.94725016032466</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L29" t="n">
-        <v>52.94725016032466</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="M29" t="n">
-        <v>94.79569263938403</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="N29" t="n">
-        <v>143.7842698905255</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="O29" t="n">
-        <v>192.772847141667</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="P29" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q29" t="n">
         <v>197.9336454591576</v>
@@ -6500,13 +6500,13 @@
         <v>197.9336454591576</v>
       </c>
       <c r="W29" t="n">
+        <v>197.9336454591576</v>
+      </c>
+      <c r="X29" t="n">
+        <v>197.9336454591576</v>
+      </c>
+      <c r="Y29" t="n">
         <v>147.95040165634</v>
-      </c>
-      <c r="X29" t="n">
-        <v>103.9251605148183</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>103.9251605148183</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.98391405070487</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C30" t="n">
         <v>3.958672909183152</v>
@@ -6543,22 +6543,22 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K30" t="n">
+        <v>3.958672909183152</v>
+      </c>
+      <c r="L30" t="n">
         <v>52.94725016032466</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>101.9358274114662</v>
       </c>
-      <c r="M30" t="n">
-        <v>148.9450682080161</v>
-      </c>
       <c r="N30" t="n">
-        <v>148.9450682080161</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="O30" t="n">
-        <v>148.9450682080161</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="P30" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q30" t="n">
         <v>197.9336454591576</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.9251605148183</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G31" t="n">
         <v>3.958672909183152</v>
@@ -6643,25 +6643,25 @@
         <v>176.5890912664556</v>
       </c>
       <c r="R31" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="S31" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="T31" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="U31" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="V31" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="W31" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="X31" t="n">
         <v>153.9084043176359</v>
-      </c>
-      <c r="S31" t="n">
-        <v>153.9084043176359</v>
-      </c>
-      <c r="T31" t="n">
-        <v>103.9251605148183</v>
-      </c>
-      <c r="U31" t="n">
-        <v>103.9251605148183</v>
-      </c>
-      <c r="V31" t="n">
-        <v>103.9251605148183</v>
-      </c>
-      <c r="W31" t="n">
-        <v>103.9251605148183</v>
-      </c>
-      <c r="X31" t="n">
-        <v>103.9251605148183</v>
       </c>
       <c r="Y31" t="n">
         <v>103.9251605148183</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.96715785352245</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="C32" t="n">
-        <v>47.98391405070487</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="D32" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="E32" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="F32" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="G32" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="H32" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="I32" t="n">
         <v>3.958672909183152</v>
@@ -6701,49 +6701,49 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K32" t="n">
-        <v>3.958672909183152</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="L32" t="n">
-        <v>52.94725016032466</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="M32" t="n">
-        <v>101.9358274114662</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="N32" t="n">
-        <v>150.9244046626077</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="O32" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P32" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q32" t="n">
         <v>197.9336454591576</v>
       </c>
       <c r="R32" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="S32" t="n">
-        <v>197.9336454591576</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="T32" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="U32" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="V32" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="W32" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="X32" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y32" t="n">
-        <v>147.95040165634</v>
+        <v>53.94191671200073</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C33" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D33" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E33" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F33" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G33" t="n">
-        <v>97.96715785352245</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H33" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="I33" t="n">
         <v>3.958672909183152</v>
       </c>
       <c r="J33" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K33" t="n">
-        <v>59.25387047732157</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L33" t="n">
+        <v>3.958672909183152</v>
+      </c>
+      <c r="M33" t="n">
+        <v>52.94725016032466</v>
+      </c>
+      <c r="N33" t="n">
         <v>99.95649095687459</v>
-      </c>
-      <c r="M33" t="n">
-        <v>148.9450682080161</v>
-      </c>
-      <c r="N33" t="n">
-        <v>148.9450682080161</v>
       </c>
       <c r="O33" t="n">
         <v>148.9450682080161</v>
       </c>
       <c r="P33" t="n">
-        <v>148.9450682080161</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q33" t="n">
         <v>197.9336454591576</v>
@@ -6810,19 +6810,19 @@
         <v>197.9336454591576</v>
       </c>
       <c r="U33" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="V33" t="n">
-        <v>197.9336454591576</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="W33" t="n">
-        <v>197.9336454591576</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="X33" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y33" t="n">
-        <v>197.9336454591576</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="H34" t="n">
         <v>3.958672909183152</v>
@@ -6886,22 +6886,22 @@
         <v>176.5890912664556</v>
       </c>
       <c r="T34" t="n">
-        <v>126.605847463638</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="U34" t="n">
-        <v>76.62260366082046</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V34" t="n">
-        <v>26.63935985800288</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W34" t="n">
-        <v>26.63935985800288</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="X34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C35" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D35" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G35" t="n">
         <v>3.958672909183152</v>
@@ -6938,19 +6938,19 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K35" t="n">
-        <v>3.958672909183152</v>
+        <v>45.80711538824252</v>
       </c>
       <c r="L35" t="n">
-        <v>3.958672909183152</v>
+        <v>94.79569263938403</v>
       </c>
       <c r="M35" t="n">
-        <v>52.94725016032466</v>
+        <v>143.7842698905255</v>
       </c>
       <c r="N35" t="n">
-        <v>101.9358274114662</v>
+        <v>192.772847141667</v>
       </c>
       <c r="O35" t="n">
-        <v>150.9244046626077</v>
+        <v>192.772847141667</v>
       </c>
       <c r="P35" t="n">
         <v>192.772847141667</v>
@@ -6959,28 +6959,28 @@
         <v>197.9336454591576</v>
       </c>
       <c r="R35" t="n">
-        <v>147.95040165634</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S35" t="n">
-        <v>103.9251605148183</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T35" t="n">
-        <v>103.9251605148183</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U35" t="n">
-        <v>103.9251605148183</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V35" t="n">
-        <v>103.9251605148183</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="W35" t="n">
         <v>103.9251605148183</v>
       </c>
       <c r="X35" t="n">
-        <v>103.9251605148183</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="Y35" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.958672909183152</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="C36" t="n">
-        <v>3.958672909183152</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="D36" t="n">
-        <v>3.958672909183152</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="E36" t="n">
-        <v>3.958672909183152</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="F36" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="G36" t="n">
-        <v>3.958672909183152</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="H36" t="n">
-        <v>3.958672909183152</v>
+        <v>53.94191671200073</v>
       </c>
       <c r="I36" t="n">
         <v>3.958672909183152</v>
       </c>
       <c r="J36" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="K36" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="L36" t="n">
-        <v>10.26529322618006</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="M36" t="n">
-        <v>59.25387047732157</v>
+        <v>50.96791370573308</v>
       </c>
       <c r="N36" t="n">
-        <v>108.2424477284631</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="O36" t="n">
-        <v>157.2310249796046</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="P36" t="n">
         <v>197.9336454591576</v>
@@ -7047,19 +7047,19 @@
         <v>197.9336454591576</v>
       </c>
       <c r="U36" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="V36" t="n">
-        <v>103.9251605148183</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="W36" t="n">
-        <v>53.94191671200073</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="X36" t="n">
-        <v>3.958672909183152</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.958672909183152</v>
+        <v>197.9336454591576</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.9251605148183</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94191671200073</v>
+        <v>126.605847463638</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94191671200073</v>
+        <v>76.62260366082046</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94191671200073</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G37" t="n">
         <v>3.958672909183152</v>
@@ -7135,10 +7135,10 @@
         <v>176.5890912664556</v>
       </c>
       <c r="X37" t="n">
-        <v>153.9084043176359</v>
+        <v>176.5890912664556</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.9251605148183</v>
+        <v>176.5890912664556</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C38" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D38" t="n">
-        <v>147.95040165634</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E38" t="n">
-        <v>103.9251605148183</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="G38" t="n">
         <v>3.958672909183152</v>
@@ -7175,22 +7175,22 @@
         <v>3.958672909183152</v>
       </c>
       <c r="K38" t="n">
-        <v>3.958672909183152</v>
+        <v>52.94725016032466</v>
       </c>
       <c r="L38" t="n">
-        <v>52.94725016032466</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="M38" t="n">
-        <v>101.9358274114662</v>
+        <v>150.9244046626077</v>
       </c>
       <c r="N38" t="n">
-        <v>150.9244046626077</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="O38" t="n">
-        <v>150.9244046626077</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="P38" t="n">
-        <v>192.772847141667</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q38" t="n">
         <v>197.9336454591576</v>
@@ -7202,22 +7202,22 @@
         <v>197.9336454591576</v>
       </c>
       <c r="T38" t="n">
-        <v>197.9336454591576</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="U38" t="n">
-        <v>197.9336454591576</v>
+        <v>153.9084043176359</v>
       </c>
       <c r="V38" t="n">
-        <v>197.9336454591576</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="W38" t="n">
-        <v>197.9336454591576</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="X38" t="n">
-        <v>197.9336454591576</v>
+        <v>103.9251605148183</v>
       </c>
       <c r="Y38" t="n">
-        <v>197.9336454591576</v>
+        <v>53.94191671200073</v>
       </c>
     </row>
     <row r="39">
@@ -7254,40 +7254,40 @@
         <v>10.26529322618006</v>
       </c>
       <c r="K39" t="n">
+        <v>10.26529322618006</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10.26529322618006</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10.26529322618006</v>
+      </c>
+      <c r="N39" t="n">
         <v>59.25387047732157</v>
       </c>
-      <c r="L39" t="n">
-        <v>59.25387047732157</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>108.2424477284631</v>
       </c>
-      <c r="N39" t="n">
-        <v>157.2310249796046</v>
-      </c>
-      <c r="O39" t="n">
-        <v>157.2310249796046</v>
-      </c>
       <c r="P39" t="n">
-        <v>197.9336454591576</v>
+        <v>148.9450682080161</v>
       </c>
       <c r="Q39" t="n">
         <v>197.9336454591576</v>
       </c>
       <c r="R39" t="n">
-        <v>153.9084043176359</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S39" t="n">
+        <v>147.95040165634</v>
+      </c>
+      <c r="T39" t="n">
+        <v>147.95040165634</v>
+      </c>
+      <c r="U39" t="n">
         <v>103.9251605148183</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>53.94191671200073</v>
-      </c>
-      <c r="U39" t="n">
-        <v>3.958672909183152</v>
-      </c>
-      <c r="V39" t="n">
-        <v>3.958672909183152</v>
       </c>
       <c r="W39" t="n">
         <v>3.958672909183152</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>76.62260366082046</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="C40" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="D40" t="n">
-        <v>26.63935985800288</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="E40" t="n">
         <v>3.958672909183152</v>
@@ -7351,31 +7351,31 @@
         <v>176.5890912664556</v>
       </c>
       <c r="Q40" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="R40" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="S40" t="n">
+        <v>176.5890912664556</v>
+      </c>
+      <c r="T40" t="n">
         <v>126.605847463638</v>
-      </c>
-      <c r="R40" t="n">
-        <v>126.605847463638</v>
-      </c>
-      <c r="S40" t="n">
-        <v>126.605847463638</v>
-      </c>
-      <c r="T40" t="n">
-        <v>76.62260366082046</v>
       </c>
       <c r="U40" t="n">
         <v>76.62260366082046</v>
       </c>
       <c r="V40" t="n">
-        <v>76.62260366082046</v>
+        <v>26.63935985800288</v>
       </c>
       <c r="W40" t="n">
-        <v>76.62260366082046</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="X40" t="n">
-        <v>76.62260366082046</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.62260366082046</v>
+        <v>3.958672909183152</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="C41" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="D41" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="E41" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="F41" t="n">
         <v>3.958672909183152</v>
@@ -7418,16 +7418,16 @@
         <v>101.9358274114662</v>
       </c>
       <c r="M41" t="n">
-        <v>150.9244046626077</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="N41" t="n">
-        <v>150.9244046626077</v>
+        <v>101.9358274114662</v>
       </c>
       <c r="O41" t="n">
-        <v>197.9336454591576</v>
+        <v>143.7842698905255</v>
       </c>
       <c r="P41" t="n">
-        <v>197.9336454591576</v>
+        <v>192.772847141667</v>
       </c>
       <c r="Q41" t="n">
         <v>197.9336454591576</v>
@@ -7439,22 +7439,22 @@
         <v>197.9336454591576</v>
       </c>
       <c r="T41" t="n">
+        <v>197.9336454591576</v>
+      </c>
+      <c r="U41" t="n">
+        <v>197.9336454591576</v>
+      </c>
+      <c r="V41" t="n">
         <v>147.95040165634</v>
       </c>
-      <c r="U41" t="n">
+      <c r="W41" t="n">
         <v>97.96715785352245</v>
       </c>
-      <c r="V41" t="n">
-        <v>47.98391405070487</v>
-      </c>
-      <c r="W41" t="n">
-        <v>47.98391405070487</v>
-      </c>
       <c r="X41" t="n">
-        <v>47.98391405070487</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>147.95040165634</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="C42" t="n">
-        <v>147.95040165634</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="D42" t="n">
-        <v>103.9251605148183</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="E42" t="n">
-        <v>53.94191671200073</v>
+        <v>3.958672909183152</v>
       </c>
       <c r="F42" t="n">
         <v>3.958672909183152</v>
@@ -7491,19 +7491,19 @@
         <v>10.26529322618006</v>
       </c>
       <c r="K42" t="n">
-        <v>59.25387047732157</v>
+        <v>10.26529322618006</v>
       </c>
       <c r="L42" t="n">
         <v>59.25387047732157</v>
       </c>
       <c r="M42" t="n">
+        <v>59.25387047732157</v>
+      </c>
+      <c r="N42" t="n">
         <v>99.95649095687459</v>
       </c>
-      <c r="N42" t="n">
-        <v>148.9450682080161</v>
-      </c>
       <c r="O42" t="n">
-        <v>148.9450682080161</v>
+        <v>99.95649095687459</v>
       </c>
       <c r="P42" t="n">
         <v>148.9450682080161</v>
@@ -7524,16 +7524,16 @@
         <v>197.9336454591576</v>
       </c>
       <c r="V42" t="n">
-        <v>197.9336454591576</v>
+        <v>147.95040165634</v>
       </c>
       <c r="W42" t="n">
-        <v>147.95040165634</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="X42" t="n">
-        <v>147.95040165634</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="Y42" t="n">
-        <v>147.95040165634</v>
+        <v>97.96715785352245</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="C43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="D43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="E43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="F43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="G43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="H43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="I43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="J43" t="n">
-        <v>3.958672909183152</v>
+        <v>40.38630856220031</v>
       </c>
       <c r="K43" t="n">
-        <v>3.958672909183152</v>
+        <v>25.30322710188515</v>
       </c>
       <c r="L43" t="n">
-        <v>40.56804907792186</v>
+        <v>61.91260327062386</v>
       </c>
       <c r="M43" t="n">
-        <v>89.55662632906336</v>
+        <v>110.9011805217654</v>
       </c>
       <c r="N43" t="n">
-        <v>138.5452035802049</v>
+        <v>159.8897577729069</v>
       </c>
       <c r="O43" t="n">
-        <v>171.721618838782</v>
+        <v>193.066173031484</v>
       </c>
       <c r="P43" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="Q43" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="R43" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="S43" t="n">
-        <v>176.5890912664556</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="T43" t="n">
-        <v>126.605847463638</v>
+        <v>197.9336454591576</v>
       </c>
       <c r="U43" t="n">
-        <v>76.62260366082046</v>
+        <v>147.95040165634</v>
       </c>
       <c r="V43" t="n">
-        <v>26.63935985800288</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="W43" t="n">
-        <v>3.958672909183152</v>
+        <v>97.96715785352245</v>
       </c>
       <c r="X43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.958672909183152</v>
+        <v>47.98391405070487</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>202.1809638361346</v>
+        <v>251.664375200924</v>
       </c>
       <c r="L20" t="n">
         <v>263.0322681400696</v>
       </c>
       <c r="M20" t="n">
-        <v>205.6249188705004</v>
+        <v>255.1083302352898</v>
       </c>
       <c r="N20" t="n">
         <v>251.7758141408643</v>
       </c>
       <c r="O20" t="n">
-        <v>255.860262215664</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P20" t="n">
-        <v>260.4707746859439</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q20" t="n">
         <v>207.1020630664798</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810001</v>
+        <v>173.1615794936768</v>
       </c>
       <c r="L21" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M21" t="n">
-        <v>123.047446830095</v>
+        <v>172.5308581948844</v>
       </c>
       <c r="N21" t="n">
-        <v>152.8637178851538</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
         <v>174.1570300523433</v>
       </c>
       <c r="P21" t="n">
-        <v>169.073331522617</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q21" t="n">
         <v>179.8495366586465</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>251.664375200924</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L23" t="n">
-        <v>213.5488567752802</v>
+        <v>263.0322681400696</v>
       </c>
       <c r="M23" t="n">
-        <v>253.1090004831771</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N23" t="n">
-        <v>204.2917325281876</v>
+        <v>253.775143892977</v>
       </c>
       <c r="O23" t="n">
         <v>255.860262215664</v>
       </c>
       <c r="P23" t="n">
-        <v>260.4707746859439</v>
+        <v>258.4714449338312</v>
       </c>
       <c r="Q23" t="n">
         <v>207.1020630664798</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
-        <v>125.6774978810001</v>
+        <v>175.1609092457896</v>
       </c>
       <c r="L24" t="n">
         <v>171.6818712210759</v>
       </c>
       <c r="M24" t="n">
-        <v>164.1612048902496</v>
+        <v>170.5315284427717</v>
       </c>
       <c r="N24" t="n">
-        <v>161.2333711897886</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O24" t="n">
-        <v>174.1570300523433</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P24" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3661252938572</v>
+        <v>179.8495366586465</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>249.6650454488113</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L26" t="n">
         <v>213.5488567752802</v>
       </c>
       <c r="M26" t="n">
-        <v>255.1083302352898</v>
+        <v>253.1090004831771</v>
       </c>
       <c r="N26" t="n">
         <v>253.775143892977</v>
@@ -9890,7 +9890,7 @@
         <v>255.860262215664</v>
       </c>
       <c r="P26" t="n">
-        <v>210.9873633211545</v>
+        <v>260.4707746859439</v>
       </c>
       <c r="Q26" t="n">
         <v>207.1020630664798</v>
@@ -9957,7 +9957,7 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L27" t="n">
-        <v>171.6818712210759</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M27" t="n">
         <v>172.5308581948844</v>
@@ -9966,10 +9966,10 @@
         <v>161.2333711897886</v>
       </c>
       <c r="O27" t="n">
-        <v>165.7873767477085</v>
+        <v>174.1570300523434</v>
       </c>
       <c r="P27" t="n">
-        <v>119.5899201578276</v>
+        <v>160.7036782179822</v>
       </c>
       <c r="Q27" t="n">
         <v>130.3661252938572</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>251.664375200924</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L29" t="n">
-        <v>213.5488567752802</v>
+        <v>261.0329383879569</v>
       </c>
       <c r="M29" t="n">
-        <v>247.8960728897523</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N29" t="n">
         <v>253.775143892977</v>
@@ -10127,10 +10127,10 @@
         <v>255.860262215664</v>
       </c>
       <c r="P29" t="n">
-        <v>210.9873633211545</v>
+        <v>260.4707746859439</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,25 +10191,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
-        <v>175.1609092457896</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L30" t="n">
         <v>171.6818712210759</v>
       </c>
       <c r="M30" t="n">
-        <v>170.5315284427717</v>
+        <v>172.5308581948844</v>
       </c>
       <c r="N30" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O30" t="n">
-        <v>124.673618687554</v>
+        <v>174.1570300523434</v>
       </c>
       <c r="P30" t="n">
-        <v>119.5899201578276</v>
+        <v>167.0740017705043</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.8495366586465</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>202.1809638361346</v>
+        <v>249.6650454488113</v>
       </c>
       <c r="L32" t="n">
         <v>263.0322681400696</v>
@@ -10361,13 +10361,13 @@
         <v>253.775143892977</v>
       </c>
       <c r="O32" t="n">
-        <v>248.6480048701264</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P32" t="n">
         <v>210.9873633211545</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K33" t="n">
-        <v>175.1609092457896</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L33" t="n">
-        <v>163.312217916441</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M33" t="n">
         <v>172.5308581948844</v>
       </c>
       <c r="N33" t="n">
-        <v>111.7499598249992</v>
+        <v>159.2340414376759</v>
       </c>
       <c r="O33" t="n">
-        <v>124.673618687554</v>
+        <v>174.1570300523433</v>
       </c>
       <c r="P33" t="n">
-        <v>119.5899201578276</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.8495366586465</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>202.1809638361346</v>
+        <v>244.4521178553865</v>
       </c>
       <c r="L35" t="n">
-        <v>213.5488567752802</v>
+        <v>263.0322681400696</v>
       </c>
       <c r="M35" t="n">
         <v>255.1083302352898</v>
@@ -10598,10 +10598,10 @@
         <v>253.775143892977</v>
       </c>
       <c r="O35" t="n">
-        <v>255.860262215664</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P35" t="n">
-        <v>253.2585173404063</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K36" t="n">
         <v>125.6774978810001</v>
@@ -10671,16 +10671,16 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M36" t="n">
-        <v>172.5308581948844</v>
+        <v>170.5315284427717</v>
       </c>
       <c r="N36" t="n">
         <v>161.2333711897886</v>
       </c>
       <c r="O36" t="n">
-        <v>174.1570300523434</v>
+        <v>174.1570300523433</v>
       </c>
       <c r="P36" t="n">
-        <v>160.7036782179822</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q36" t="n">
         <v>130.3661252938572</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>202.1809638361346</v>
+        <v>251.664375200924</v>
       </c>
       <c r="L38" t="n">
         <v>263.0322681400696</v>
@@ -10832,16 +10832,16 @@
         <v>255.1083302352898</v>
       </c>
       <c r="N38" t="n">
-        <v>253.775143892977</v>
+        <v>251.7758141408643</v>
       </c>
       <c r="O38" t="n">
         <v>206.3768508508745</v>
       </c>
       <c r="P38" t="n">
-        <v>253.2585173404063</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>175.1609092457896</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L39" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M39" t="n">
-        <v>172.5308581948844</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N39" t="n">
         <v>161.2333711897886</v>
       </c>
       <c r="O39" t="n">
-        <v>124.673618687554</v>
+        <v>174.1570300523434</v>
       </c>
       <c r="P39" t="n">
         <v>160.7036782179822</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3661252938572</v>
+        <v>179.8495366586465</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,19 +11066,19 @@
         <v>263.0322681400696</v>
       </c>
       <c r="M41" t="n">
-        <v>255.1083302352898</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N41" t="n">
         <v>204.2917325281876</v>
       </c>
       <c r="O41" t="n">
-        <v>253.8609324635513</v>
+        <v>248.6480048701264</v>
       </c>
       <c r="P41" t="n">
-        <v>210.9873633211545</v>
+        <v>260.4707746859439</v>
       </c>
       <c r="Q41" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>175.1609092457896</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L42" t="n">
-        <v>122.1984598562864</v>
+        <v>171.6818712210759</v>
       </c>
       <c r="M42" t="n">
-        <v>164.1612048902496</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N42" t="n">
-        <v>161.2333711897886</v>
+        <v>152.8637178851538</v>
       </c>
       <c r="O42" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P42" t="n">
-        <v>119.5899201578276</v>
+        <v>169.073331522617</v>
       </c>
       <c r="Q42" t="n">
         <v>179.8495366586465</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>333.2504302986912</v>
       </c>
       <c r="C20" t="n">
-        <v>315.7894804062182</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24017,25 +24017,25 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>156.3284291616084</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>172.9961344051792</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>207.7494010587048</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>305.6559799873065</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>320.2476893136796</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>336.7545272912642</v>
       </c>
     </row>
     <row r="21">
@@ -24057,16 +24057,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>95.58580102859447</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>87.78477704894989</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
-        <v>62.02451573865504</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>43.2180884925809</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,19 +24099,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>150.3776896073824</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9364262421938</v>
+        <v>182.3514375120873</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>156.2895738386881</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.4739461860272</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
-        <v>112.1822727330878</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I22" t="n">
-        <v>104.0678778172416</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J22" t="n">
-        <v>39.41084506970898</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
         <v>14.93225064571201</v>
@@ -24175,16 +24175,16 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S22" t="n">
-        <v>222.9160118599466</v>
+        <v>173.4326004951572</v>
       </c>
       <c r="T22" t="n">
-        <v>227.6757534850358</v>
+        <v>178.1923421202464</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3155846423218</v>
+        <v>236.8321732775324</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>229.6837632444965</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>333.2504302986912</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,10 +24212,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>332.4469587074724</v>
       </c>
       <c r="F23" t="n">
-        <v>363.2910570116049</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.1619485273195</v>
@@ -24254,22 +24254,22 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S23" t="n">
-        <v>156.3284291616084</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T23" t="n">
-        <v>172.9961344051792</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3343897888113</v>
+        <v>207.7494010587048</v>
       </c>
       <c r="V23" t="n">
-        <v>278.2688471053455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>320.2476893136796</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.9481949197609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>123.2250876235263</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.99743253559016</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S24" t="n">
-        <v>120.8005612565437</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T24" t="n">
-        <v>199.8611009721718</v>
+        <v>156.2761122420654</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9364262421938</v>
+        <v>176.4530148774044</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X24" t="n">
-        <v>156.2895738386881</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>118.4444149005693</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H25" t="n">
-        <v>112.1822727330878</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I25" t="n">
-        <v>104.0678778172416</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J25" t="n">
-        <v>66.44037635516686</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K25" t="n">
         <v>14.93225064571201</v>
@@ -24409,16 +24409,16 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R25" t="n">
-        <v>174.4537986637794</v>
+        <v>151.9999185844479</v>
       </c>
       <c r="S25" t="n">
-        <v>222.9160118599466</v>
+        <v>173.4326004951572</v>
       </c>
       <c r="T25" t="n">
-        <v>227.6757534850358</v>
+        <v>178.1923421202464</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3155846423218</v>
+        <v>236.8321732775324</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,22 +24443,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>315.7894804062182</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>305.1996302558936</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>357.392634376922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>365.6785371625301</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H26" t="n">
-        <v>294.4479581641943</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I26" t="n">
         <v>205.0481221176458</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.54187032048991</v>
+        <v>97.44029295517282</v>
       </c>
       <c r="S26" t="n">
         <v>205.8118405263978</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>299.7575573526236</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24616,13 +24616,13 @@
         <v>118.4444149005693</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1822727330878</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I28" t="n">
-        <v>153.551289182031</v>
+        <v>131.0974091026994</v>
       </c>
       <c r="J28" t="n">
-        <v>66.44037635516686</v>
+        <v>39.41084506970898</v>
       </c>
       <c r="K28" t="n">
         <v>14.93225064571201</v>
@@ -24655,7 +24655,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U28" t="n">
-        <v>236.8321732775324</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2262440242478</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,22 +24680,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>315.7894804062182</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>305.1996302558936</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>338.3453813421553</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.1619485273195</v>
+        <v>365.6785371625301</v>
       </c>
       <c r="H29" t="n">
-        <v>338.0329468943008</v>
+        <v>288.5495355295114</v>
       </c>
       <c r="I29" t="n">
         <v>205.0481221176458</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>299.7575573526236</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>326.1461119483625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>336.7545272912642</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>122.9481949197609</v>
       </c>
       <c r="C30" t="n">
-        <v>129.1235102582093</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>130.3485688171479</v>
       </c>
       <c r="C31" t="n">
         <v>117.7634097338384</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>118.4444149005693</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H31" t="n">
         <v>161.6656840978772</v>
@@ -24883,13 +24883,13 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R31" t="n">
-        <v>151.9999185844479</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S31" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T31" t="n">
-        <v>178.1923421202464</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U31" t="n">
         <v>286.3155846423218</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2557753097056</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>169.1012419873054</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.2504302986912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>315.7894804062182</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>311.0980528905765</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24935,7 +24935,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I32" t="n">
-        <v>205.0481221176458</v>
+        <v>155.5647107528564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.0252816852793</v>
+        <v>91.54187032048991</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8118405263978</v>
+        <v>162.2268517962913</v>
       </c>
       <c r="T32" t="n">
-        <v>222.4795457699687</v>
+        <v>172.9961344051792</v>
       </c>
       <c r="U32" t="n">
         <v>251.3343897888113</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>336.7545272912642</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.0497722850779</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>123.2250876235263</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25011,10 +25011,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H33" t="n">
-        <v>67.92293837333796</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I33" t="n">
-        <v>37.31966585789799</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,16 +25050,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9364262421938</v>
+        <v>176.4530148774044</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>183.3171757846359</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>162.187996473371</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25090,7 +25090,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H34" t="n">
-        <v>139.2118040185457</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I34" t="n">
         <v>153.551289182031</v>
@@ -25126,19 +25126,19 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T34" t="n">
-        <v>178.1923421202464</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U34" t="n">
-        <v>236.8321732775324</v>
+        <v>263.8617045629902</v>
       </c>
       <c r="V34" t="n">
         <v>202.6542319590386</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>237.0395869718016</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2262440242478</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.2504302986912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>365.6785371625301</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H35" t="n">
         <v>338.0329468943008</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>91.54187032048991</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S35" t="n">
-        <v>162.2268517962913</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3343897888113</v>
+        <v>207.7494010587048</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>299.7575573526236</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>320.2476893136796</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>336.7545272912642</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>122.9481949197609</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,16 +25242,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>95.58580102859447</v>
       </c>
       <c r="G36" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5079271034444</v>
+        <v>62.02451573865504</v>
       </c>
       <c r="I36" t="n">
-        <v>86.80307722268739</v>
+        <v>37.31966585789799</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25287,16 +25287,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U36" t="n">
-        <v>182.3514375120873</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V36" t="n">
-        <v>183.3171757846359</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>202.2115717961302</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>156.2895738386881</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25315,16 +25315,16 @@
         <v>117.7634097338384</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>99.13206165342295</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>96.95055128177977</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>122.9671679435997</v>
       </c>
       <c r="G37" t="n">
-        <v>118.4444149005693</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H37" t="n">
         <v>161.6656840978772</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>203.2557753097056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>169.1012419873054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>338.3453813421553</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>357.392634376922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>365.6785371625301</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H38" t="n">
         <v>338.0329468943008</v>
@@ -25442,13 +25442,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4795457699687</v>
+        <v>178.8945570398622</v>
       </c>
       <c r="U38" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>278.2688471053455</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>336.7545272912642</v>
       </c>
     </row>
     <row r="39">
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>51.89585517027307</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S39" t="n">
         <v>120.8005612565437</v>
       </c>
       <c r="T39" t="n">
-        <v>150.3776896073824</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U39" t="n">
-        <v>176.4530148774044</v>
+        <v>182.3514375120873</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>183.3171757846359</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2115717961302</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>117.7634097338384</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>123.9800825672376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.39042151831705</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R40" t="n">
         <v>174.4537986637794</v>
@@ -25603,13 +25603,13 @@
         <v>178.1923421202464</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3155846423218</v>
+        <v>236.8321732775324</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>202.6542319590386</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>264.0691182572595</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,10 +25634,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>332.4469587074724</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>363.2910570116049</v>
       </c>
       <c r="G41" t="n">
         <v>415.1619485273195</v>
@@ -25679,22 +25679,22 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T41" t="n">
-        <v>172.9961344051792</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U41" t="n">
-        <v>201.8509784240218</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V41" t="n">
         <v>278.2688471053455</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>299.7575573526236</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>342.6529499259471</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>117.0497722850779</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>103.8600768345323</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>108.1616690906115</v>
+        <v>114.0600917252945</v>
       </c>
       <c r="F42" t="n">
-        <v>95.58580102859447</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.2681884137393</v>
@@ -25764,7 +25764,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>183.3171757846359</v>
       </c>
       <c r="W42" t="n">
         <v>202.2115717961302</v>
@@ -25807,10 +25807,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J43" t="n">
-        <v>88.89425643449839</v>
+        <v>81.37262700087888</v>
       </c>
       <c r="K43" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T43" t="n">
-        <v>178.1923421202464</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U43" t="n">
         <v>236.8321732775324</v>
@@ -25846,10 +25846,10 @@
         <v>202.6542319590386</v>
       </c>
       <c r="W43" t="n">
-        <v>264.0691182572595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2262440242478</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>379113.5331090765</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>379113.5331090765</v>
+        <v>379113.5331090766</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>379113.5331090766</v>
+        <v>379113.5331090764</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>379113.5331090766</v>
+        <v>379113.5331090764</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80630.55414858478</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C2" t="n">
         <v>80630.55414858478</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858478</v>
+        <v>80630.55414858481</v>
       </c>
       <c r="E2" t="n">
         <v>82279.54400800072</v>
@@ -26329,22 +26329,22 @@
         <v>82279.54400800072</v>
       </c>
       <c r="H2" t="n">
-        <v>92603.29247978372</v>
+        <v>92603.29247978375</v>
       </c>
       <c r="I2" t="n">
-        <v>92603.29247978373</v>
+        <v>92603.29247978375</v>
       </c>
       <c r="J2" t="n">
-        <v>92603.29247978372</v>
+        <v>92603.29247978375</v>
       </c>
       <c r="K2" t="n">
-        <v>92603.29247978373</v>
+        <v>92603.29247978376</v>
       </c>
       <c r="L2" t="n">
         <v>92603.29247978373</v>
       </c>
       <c r="M2" t="n">
-        <v>92603.29247978372</v>
+        <v>92603.29247978373</v>
       </c>
       <c r="N2" t="n">
         <v>92603.29247978373</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>34586.90224423212</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="F4" t="n">
-        <v>34586.90224423213</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="G4" t="n">
-        <v>34586.90224423212</v>
+        <v>34652.55823770496</v>
       </c>
       <c r="H4" t="n">
-        <v>39535.29130672568</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="I4" t="n">
-        <v>39535.29130672567</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="J4" t="n">
-        <v>39535.29130672567</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="K4" t="n">
-        <v>39535.29130672567</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="L4" t="n">
-        <v>39535.29130672567</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="M4" t="n">
-        <v>39535.29130672567</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="N4" t="n">
-        <v>39535.29130672568</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="O4" t="n">
-        <v>39535.29130672568</v>
+        <v>39610.26079940193</v>
       </c>
       <c r="P4" t="n">
-        <v>34586.90224423213</v>
+        <v>34652.55823770496</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9446.654984488829</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="C6" t="n">
-        <v>9446.654984488829</v>
+        <v>9375.36221257854</v>
       </c>
       <c r="D6" t="n">
-        <v>9446.654984488829</v>
+        <v>9375.36221257857</v>
       </c>
       <c r="E6" t="n">
-        <v>18792.99235456422</v>
+        <v>18727.33636109139</v>
       </c>
       <c r="F6" t="n">
-        <v>46929.17828009166</v>
+        <v>46863.52228661883</v>
       </c>
       <c r="G6" t="n">
-        <v>46929.17828009167</v>
+        <v>46863.52228661883</v>
       </c>
       <c r="H6" t="n">
-        <v>35944.87654147945</v>
+        <v>35869.90704880322</v>
       </c>
       <c r="I6" t="n">
-        <v>49295.94627840193</v>
+        <v>49220.97678572569</v>
       </c>
       <c r="J6" t="n">
-        <v>49295.94627840192</v>
+        <v>49220.97678572569</v>
       </c>
       <c r="K6" t="n">
-        <v>49295.94627840193</v>
+        <v>49220.9767857257</v>
       </c>
       <c r="L6" t="n">
-        <v>49295.94627840193</v>
+        <v>49220.97678572567</v>
       </c>
       <c r="M6" t="n">
-        <v>49295.94627840192</v>
+        <v>49220.97678572567</v>
       </c>
       <c r="N6" t="n">
-        <v>49295.94627840193</v>
+        <v>49220.97678572567</v>
       </c>
       <c r="O6" t="n">
-        <v>49295.94627840194</v>
+        <v>49220.97678572569</v>
       </c>
       <c r="P6" t="n">
-        <v>46929.17828009166</v>
+        <v>46863.52228661883</v>
       </c>
     </row>
   </sheetData>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L20" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N20" t="n">
         <v>47.4840816126767</v>
       </c>
       <c r="O20" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N21" t="n">
-        <v>41.11375806015457</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="P21" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>49.4834113647894</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
-        <v>47.4840816126767</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="O23" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="P23" t="n">
-        <v>49.4834113647894</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L24" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="M24" t="n">
-        <v>41.11375806015457</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="O24" t="n">
-        <v>49.4834113647894</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>47.4840816126767</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>49.4834113647894</v>
       </c>
       <c r="N26" t="n">
         <v>49.4834113647894</v>
@@ -36610,7 +36610,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>49.4834113647894</v>
@@ -36686,10 +36686,10 @@
         <v>49.4834113647894</v>
       </c>
       <c r="O27" t="n">
+        <v>49.4834113647894</v>
+      </c>
+      <c r="P27" t="n">
         <v>41.11375806015459</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="M29" t="n">
-        <v>42.27115401925189</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>49.4834113647894</v>
@@ -36847,10 +36847,10 @@
         <v>49.4834113647894</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="M30" t="n">
+        <v>49.4834113647894</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>49.4834113647894</v>
+      </c>
+      <c r="P30" t="n">
         <v>47.4840816126767</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="L32" t="n">
         <v>49.4834113647894</v>
@@ -37081,13 +37081,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="O32" t="n">
-        <v>42.27115401925186</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>41.11375806015457</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>42.27115401925189</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="M35" t="n">
         <v>49.4834113647894</v>
@@ -37318,10 +37318,10 @@
         <v>49.4834113647894</v>
       </c>
       <c r="O35" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.27115401925186</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>5.212927593424824</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>49.4834113647894</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="N36" t="n">
         <v>49.4834113647894</v>
@@ -37400,7 +37400,7 @@
         <v>49.4834113647894</v>
       </c>
       <c r="P36" t="n">
-        <v>41.11375806015459</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="L38" t="n">
         <v>49.4834113647894</v>
@@ -37552,16 +37552,16 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N38" t="n">
-        <v>49.4834113647894</v>
+        <v>47.4840816126767</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.27115401925186</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K39" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>49.4834113647894</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="P39" t="n">
-        <v>41.11375806015459</v>
+        <v>41.11375806015457</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,19 +37786,19 @@
         <v>49.4834113647894</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>42.27115401925189</v>
+      </c>
+      <c r="P41" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>47.4840816126767</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>49.4834113647894</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>41.11375806015457</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>49.4834113647894</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>49.4834113647894</v>
